--- a/log/clustering_log/AgglomerativeClustering/title/quick cos/_summary.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/title/quick cos/_summary.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="centroid" sheetId="4" r:id="rId1"/>
     <sheet name="single" sheetId="3" r:id="rId2"/>
     <sheet name="average" sheetId="1" r:id="rId3"/>
     <sheet name="complete" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>AMI</t>
   </si>
@@ -64,6 +65,21 @@
   </si>
   <si>
     <t>test finished in 12035.76 seconds</t>
+  </si>
+  <si>
+    <t>average-0.6</t>
+  </si>
+  <si>
+    <t>centroid-0.75</t>
+  </si>
+  <si>
+    <t>complete-0.75</t>
+  </si>
+  <si>
+    <t>single-0.45</t>
+  </si>
+  <si>
+    <t>test finished in 416.23 seconds</t>
   </si>
 </sst>
 </file>
@@ -131,6 +147,1229 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average-0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD50-4A37-B714-75596A5577B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>centroid-0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD50-4A37-B714-75596A5577B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>complete-0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD50-4A37-B714-75596A5577B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-0.45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD50-4A37-B714-75596A5577B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="279083583"/>
+        <c:axId val="279077759"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>工作表1!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DD50-4A37-B714-75596A5577B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="279083583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279077759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279077759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279083583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1176,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="H5:M5"/>
     </sheetView>
   </sheetViews>
@@ -4727,4 +5966,383 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.84</v>
+      </c>
+      <c r="C3">
+        <v>0.84</v>
+      </c>
+      <c r="D3">
+        <v>0.88</v>
+      </c>
+      <c r="E3">
+        <v>0.95</v>
+      </c>
+      <c r="F3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.67</v>
+      </c>
+      <c r="C4">
+        <v>0.73</v>
+      </c>
+      <c r="D4">
+        <v>0.78</v>
+      </c>
+      <c r="E4">
+        <v>0.99</v>
+      </c>
+      <c r="F4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0.64</v>
+      </c>
+      <c r="C5">
+        <v>0.67</v>
+      </c>
+      <c r="D5">
+        <v>0.76</v>
+      </c>
+      <c r="E5">
+        <v>0.97</v>
+      </c>
+      <c r="F5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.7</v>
+      </c>
+      <c r="C6">
+        <v>0.66</v>
+      </c>
+      <c r="D6">
+        <v>0.77</v>
+      </c>
+      <c r="E6">
+        <v>0.88</v>
+      </c>
+      <c r="F6">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.87</v>
+      </c>
+      <c r="C8">
+        <v>0.87</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.96</v>
+      </c>
+      <c r="F8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.7</v>
+      </c>
+      <c r="C9">
+        <v>0.76</v>
+      </c>
+      <c r="D9">
+        <v>0.79</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0.66</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>0.77</v>
+      </c>
+      <c r="E10">
+        <v>0.99</v>
+      </c>
+      <c r="F10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.74</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.89</v>
+      </c>
+      <c r="F11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>0.79</v>
+      </c>
+      <c r="D13">
+        <v>0.85</v>
+      </c>
+      <c r="E13">
+        <v>0.94</v>
+      </c>
+      <c r="F13">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.65</v>
+      </c>
+      <c r="C14">
+        <v>0.69</v>
+      </c>
+      <c r="D14">
+        <v>0.76</v>
+      </c>
+      <c r="E14">
+        <v>0.98</v>
+      </c>
+      <c r="F14">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.62</v>
+      </c>
+      <c r="C15">
+        <v>0.64</v>
+      </c>
+      <c r="D15">
+        <v>0.75</v>
+      </c>
+      <c r="E15">
+        <v>0.96</v>
+      </c>
+      <c r="F15">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.68</v>
+      </c>
+      <c r="C16">
+        <v>0.61</v>
+      </c>
+      <c r="D16">
+        <v>0.76</v>
+      </c>
+      <c r="E16">
+        <v>0.87</v>
+      </c>
+      <c r="F16">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0.02</v>
+      </c>
+      <c r="C18">
+        <v>0.03</v>
+      </c>
+      <c r="D18">
+        <v>0.02</v>
+      </c>
+      <c r="E18">
+        <v>0.01</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>0.03</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+      <c r="E19">
+        <v>0.01</v>
+      </c>
+      <c r="F19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.01</v>
+      </c>
+      <c r="C20">
+        <v>0.02</v>
+      </c>
+      <c r="D20">
+        <v>0.01</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0.02</v>
+      </c>
+      <c r="C21">
+        <v>0.03</v>
+      </c>
+      <c r="D21">
+        <v>0.02</v>
+      </c>
+      <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>